--- a/Requirement_Java_SpringBoot_Backend_Developement-revised-v1.0.xlsx
+++ b/Requirement_Java_SpringBoot_Backend_Developement-revised-v1.0.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Course</t>
   </si>
@@ -92,29 +92,16 @@
     <t>Servlets</t>
   </si>
   <si>
-    <t>Introduction to Web Technologies, Type of Servlets: Generic and Http Servlet
-Request Dispatchers: Forward and include, 4 types of Session Tracking and Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depended on client </t>
-  </si>
-  <si>
     <t>ORM</t>
   </si>
   <si>
     <t>Hibernate</t>
   </si>
   <si>
-    <t>Introduction to Hibernate, Architecture of Hibernate, Database Operations: Insert/Update/Delete/Sheet, Association in hiberanate, Caching in Hibernate</t>
-  </si>
-  <si>
     <t>Git and Maven</t>
   </si>
   <si>
     <t>Git and GitHub, Maven</t>
-  </si>
-  <si>
-    <t>Source Control, Git, Key Git Terminology, Basic Git Commands, Branching and Merging,Maven (Local, Remote and Central Repo), Setup Maven ,Manage Repositories and Dependency, Management Building and deploying project, create package (jar or war), Integrate Maven with Eclipse, Manage testing and deployment options, Maven Goals, Maven Plugins</t>
   </si>
   <si>
     <t>Spring Framework</t>
@@ -275,6 +262,56 @@
   <si>
     <t xml:space="preserve">Regex, Java 8 Features  </t>
   </si>
+  <si>
+    <t>Completed.                                                                                               Movieapp using jdbc crud operation complete and the same submit tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                       Movieapp using hibernate crud operation complete and the same submit tomorrow</t>
+  </si>
+  <si>
+    <t>Introduction to Hibernate, Architecture of Hibernate, Database Operations: Insert/Update/Delete/Sheet, Association in hiberanate, Caching in Hibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                       Movieapp using hibernate crud operation with association complete and the same submit tomorrow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Introduction to Web Technologies, Type of Servlets: Generic and Http Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Request Dispatchers: Forward and include, 4 types of Session Tracking and Filters</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a movie web application and manage the httpsession</t>
+  </si>
+  <si>
+    <t>Source Control, Git, Key Git Terminology, Basic Git Commands, Branching and Merging,Maven (Local, Remote and Central Repo), Setup Maven ,Manage Repositories and Dependency, Management Building and deploying project, create package (jar or war), Integrate Maven with Eclipse, Manage testing and deployment options, Maven Goals, Maven Plugins</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,6 +361,11 @@
       <b/>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -412,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,9 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -492,10 +531,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,30 +607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,22 +829,22 @@
   </sheetPr>
   <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5703125" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10" style="15" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="83.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="36.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -797,13 +854,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -826,18 +883,18 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
-        <v>51</v>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
@@ -861,16 +918,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
-        <v>52</v>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="1"/>
@@ -894,15 +951,15 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="10"/>
@@ -927,18 +984,18 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>45348</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>55</v>
+      <c r="E5" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1"/>
@@ -962,21 +1019,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>45349</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>58</v>
+      <c r="E6" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -999,21 +1056,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>45350</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>60</v>
+      <c r="E7" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1036,17 +1093,17 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>45351</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="10"/>
@@ -1071,18 +1128,18 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
+      <c r="A9" s="45"/>
+      <c r="B9" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>45352</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>61</v>
+      <c r="E9" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
@@ -1105,21 +1162,23 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="28">
+    <row r="10" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="32">
         <v>9</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="33">
         <v>45355</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1140,24 +1199,24 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20">
-        <v>10</v>
-      </c>
-      <c r="D11" s="22">
+    <row r="11" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="21">
         <v>45356</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
+      <c r="E11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1179,23 +1238,25 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5">
-        <v>11</v>
-      </c>
-      <c r="D12" s="22">
+    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="28">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21">
         <v>45357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1217,22 +1278,24 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>22</v>
+      <c r="A13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>45358</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1255,19 +1318,19 @@
     </row>
     <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>45359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
@@ -1291,22 +1354,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19">
+        <v>14</v>
+      </c>
+      <c r="D15" s="21">
+        <v>45360</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="20">
-        <v>14</v>
-      </c>
-      <c r="D15" s="22">
-        <v>45360</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1328,18 +1391,18 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>45362</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
@@ -1363,20 +1426,20 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="42">
         <v>16</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="34">
         <v>45363</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="43"/>
+      <c r="E17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1398,12 +1461,12 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="44"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1425,22 +1488,22 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="A19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="42">
         <v>17</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="40">
         <v>45364</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="43"/>
+      <c r="E19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1462,12 +1525,12 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="44"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1489,18 +1552,18 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>45365</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
@@ -1524,18 +1587,18 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5">
         <v>19</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>45366</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
@@ -1559,18 +1622,18 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>45367</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
@@ -1594,20 +1657,20 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="A24" s="48"/>
+      <c r="B24" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42">
         <v>21</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>45369</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="23"/>
+      <c r="E24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1629,14 +1692,14 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="22">
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="21">
         <v>45370</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1658,20 +1721,20 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>44</v>
+      <c r="A26" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5">
         <v>22</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>45371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
@@ -1695,18 +1758,18 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>45372</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
@@ -1731,19 +1794,19 @@
     </row>
     <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8">
         <v>24</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>45373</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1"/>
@@ -1767,7 +1830,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1794,7 +1857,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1821,7 +1884,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1848,7 +1911,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1875,7 +1938,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1902,7 +1965,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1929,7 +1992,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1956,7 +2019,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1983,7 +2046,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2010,7 +2073,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2037,7 +2100,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2064,7 +2127,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2091,7 +2154,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2118,7 +2181,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2145,7 +2208,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2172,7 +2235,7 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2199,7 +2262,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2226,7 +2289,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2253,7 +2316,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2280,7 +2343,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2307,7 +2370,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2334,7 +2397,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2361,7 +2424,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2388,7 +2451,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2415,7 +2478,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2442,7 +2505,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2469,7 +2532,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2496,7 +2559,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2523,7 +2586,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2550,7 +2613,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2577,7 +2640,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2604,7 +2667,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2631,7 +2694,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2658,7 +2721,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2685,7 +2748,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2712,7 +2775,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2739,7 +2802,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2766,7 +2829,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2793,7 +2856,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2820,7 +2883,7 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2847,7 +2910,7 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2874,7 +2937,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2901,7 +2964,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2928,7 +2991,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2955,7 +3018,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2982,7 +3045,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3009,7 +3072,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3036,7 +3099,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3063,7 +3126,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3090,7 +3153,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3117,7 +3180,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3144,7 +3207,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3171,7 +3234,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3198,7 +3261,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3225,7 +3288,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3252,7 +3315,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3279,7 +3342,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3306,7 +3369,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3333,7 +3396,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3360,7 +3423,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3387,7 +3450,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3414,7 +3477,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3441,7 +3504,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3468,7 +3531,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3495,7 +3558,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3522,7 +3585,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3549,7 +3612,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3576,7 +3639,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3603,7 +3666,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3630,7 +3693,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3657,7 +3720,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3684,7 +3747,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3711,7 +3774,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3738,7 +3801,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3765,7 +3828,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3792,7 +3855,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3819,7 +3882,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3846,7 +3909,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3873,7 +3936,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3900,7 +3963,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3927,7 +3990,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3954,7 +4017,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3981,7 +4044,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4008,7 +4071,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4035,7 +4098,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4062,7 +4125,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4089,7 +4152,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4116,7 +4179,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4143,7 +4206,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4170,7 +4233,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4197,7 +4260,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4224,7 +4287,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4251,7 +4314,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4278,7 +4341,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
+      <c r="A122" s="14"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4305,7 +4368,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
+      <c r="A123" s="14"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4332,7 +4395,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4359,7 +4422,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4386,7 +4449,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4413,7 +4476,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4440,7 +4503,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4467,7 +4530,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4494,7 +4557,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4521,7 +4584,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4548,7 +4611,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4575,7 +4638,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4602,7 +4665,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4629,7 +4692,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4656,7 +4719,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4683,7 +4746,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4710,7 +4773,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4737,7 +4800,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4764,7 +4827,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4791,7 +4854,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4818,7 +4881,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4845,7 +4908,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4872,7 +4935,7 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4899,7 +4962,7 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="4"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4926,7 +4989,7 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
+      <c r="A146" s="14"/>
       <c r="B146" s="4"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4953,7 +5016,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4980,7 +5043,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5007,7 +5070,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="4"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5034,7 +5097,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5061,7 +5124,7 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="4"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5088,7 +5151,7 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5115,7 +5178,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5142,7 +5205,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5169,7 +5232,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
+      <c r="A155" s="14"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5196,7 +5259,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
       <c r="B156" s="4"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5223,7 +5286,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
+      <c r="A157" s="14"/>
       <c r="B157" s="4"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5250,7 +5313,7 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
+      <c r="A158" s="14"/>
       <c r="B158" s="4"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5277,7 +5340,7 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="4"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5304,7 +5367,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="4"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5331,7 +5394,7 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
+      <c r="A161" s="14"/>
       <c r="B161" s="4"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5358,7 +5421,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="4"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5385,7 +5448,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
+      <c r="A163" s="14"/>
       <c r="B163" s="4"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5412,7 +5475,7 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14"/>
       <c r="B164" s="4"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5439,7 +5502,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
+      <c r="A165" s="14"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5466,7 +5529,7 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5493,7 +5556,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
+      <c r="A167" s="14"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5520,7 +5583,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="14"/>
       <c r="B168" s="4"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5547,7 +5610,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="4"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5574,7 +5637,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
+      <c r="A170" s="14"/>
       <c r="B170" s="4"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5601,7 +5664,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="4"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5628,7 +5691,7 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="4"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5655,7 +5718,7 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="4"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5682,7 +5745,7 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="4"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5709,7 +5772,7 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="4"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5736,7 +5799,7 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="4"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5763,7 +5826,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
+      <c r="A177" s="14"/>
       <c r="B177" s="4"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5790,7 +5853,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
+      <c r="A178" s="14"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5817,7 +5880,7 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
+      <c r="A179" s="14"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5844,7 +5907,7 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="4"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5871,7 +5934,7 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="4"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5898,7 +5961,7 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
+      <c r="A182" s="14"/>
       <c r="B182" s="4"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5925,7 +5988,7 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="4"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5952,7 +6015,7 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
+      <c r="A184" s="14"/>
       <c r="B184" s="4"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5979,7 +6042,7 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
+      <c r="A185" s="14"/>
       <c r="B185" s="4"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6006,7 +6069,7 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
+      <c r="A186" s="14"/>
       <c r="B186" s="4"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6033,7 +6096,7 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
+      <c r="A187" s="14"/>
       <c r="B187" s="4"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6060,7 +6123,7 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
+      <c r="A188" s="14"/>
       <c r="B188" s="4"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6087,7 +6150,7 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
+      <c r="A189" s="14"/>
       <c r="B189" s="4"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6114,7 +6177,7 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
+      <c r="A190" s="14"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6141,7 +6204,7 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
+      <c r="A191" s="14"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6168,7 +6231,7 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
+      <c r="A192" s="14"/>
       <c r="B192" s="4"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6195,7 +6258,7 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="4"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6222,7 +6285,7 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
+      <c r="A194" s="14"/>
       <c r="B194" s="4"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6249,7 +6312,7 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="15"/>
+      <c r="A195" s="14"/>
       <c r="B195" s="4"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6276,7 +6339,7 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
+      <c r="A196" s="14"/>
       <c r="B196" s="4"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6303,7 +6366,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
+      <c r="A197" s="14"/>
       <c r="B197" s="4"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6330,7 +6393,7 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
+      <c r="A198" s="14"/>
       <c r="B198" s="4"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6357,7 +6420,7 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
+      <c r="A199" s="14"/>
       <c r="B199" s="4"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -6384,7 +6447,7 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
+      <c r="A200" s="14"/>
       <c r="B200" s="4"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6411,7 +6474,7 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="15"/>
+      <c r="A201" s="14"/>
       <c r="B201" s="4"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6438,7 +6501,7 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
+      <c r="A202" s="14"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -6465,7 +6528,7 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
+      <c r="A203" s="14"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -6492,7 +6555,7 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
+      <c r="A204" s="14"/>
       <c r="B204" s="4"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -6519,7 +6582,7 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="15"/>
+      <c r="A205" s="14"/>
       <c r="B205" s="4"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6546,7 +6609,7 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
+      <c r="A206" s="14"/>
       <c r="B206" s="4"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6573,7 +6636,7 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="15"/>
+      <c r="A207" s="14"/>
       <c r="B207" s="4"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6600,7 +6663,7 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="15"/>
+      <c r="A208" s="14"/>
       <c r="B208" s="4"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6627,7 +6690,7 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="15"/>
+      <c r="A209" s="14"/>
       <c r="B209" s="4"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6654,7 +6717,7 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="15"/>
+      <c r="A210" s="14"/>
       <c r="B210" s="4"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6681,7 +6744,7 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="15"/>
+      <c r="A211" s="14"/>
       <c r="B211" s="4"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6708,7 +6771,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="15"/>
+      <c r="A212" s="14"/>
       <c r="B212" s="4"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6735,7 +6798,7 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="15"/>
+      <c r="A213" s="14"/>
       <c r="B213" s="4"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6762,7 +6825,7 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="15"/>
+      <c r="A214" s="14"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6789,7 +6852,7 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="15"/>
+      <c r="A215" s="14"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6816,7 +6879,7 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="15"/>
+      <c r="A216" s="14"/>
       <c r="B216" s="4"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6843,7 +6906,7 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="15"/>
+      <c r="A217" s="14"/>
       <c r="B217" s="4"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6870,7 +6933,7 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="15"/>
+      <c r="A218" s="14"/>
       <c r="B218" s="4"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6897,7 +6960,7 @@
       <c r="Y218" s="1"/>
     </row>
     <row r="219" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="15"/>
+      <c r="A219" s="14"/>
       <c r="B219" s="4"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6924,7 +6987,7 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="15"/>
+      <c r="A220" s="14"/>
       <c r="B220" s="4"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -6951,7 +7014,7 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="15"/>
+      <c r="A221" s="14"/>
       <c r="B221" s="4"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -6978,7 +7041,7 @@
       <c r="Y221" s="1"/>
     </row>
     <row r="222" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="14"/>
       <c r="B222" s="4"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -7005,7 +7068,7 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="15"/>
+      <c r="A223" s="14"/>
       <c r="B223" s="4"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -7032,7 +7095,7 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="15"/>
+      <c r="A224" s="14"/>
       <c r="B224" s="4"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -7059,7 +7122,7 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="15"/>
+      <c r="A225" s="14"/>
       <c r="B225" s="4"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -7086,7 +7149,7 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="14"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -7114,6 +7177,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
@@ -7123,13 +7193,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirement_Java_SpringBoot_Backend_Developement-revised-v1.0.xlsx
+++ b/Requirement_Java_SpringBoot_Backend_Developement-revised-v1.0.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Course</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Java Core</t>
-  </si>
-  <si>
-    <t>Introduction to Java, Data Handling and Functions</t>
   </si>
   <si>
     <t>Object Oriented Programming in Java</t>
@@ -110,13 +107,7 @@
     <t>Introduction to Spring</t>
   </si>
   <si>
-    <t>Introduction to Spring Framework, Why Spring, Java Frameworks, Spring Framework, architecture, Object Coupling Problem, Loose coupling and Tight coupling, Dependency Injection and its types, Bean Life cycle, Bean scopes (singleton and prototype)</t>
-  </si>
-  <si>
     <t>Spring Configurations and Aspect Oriented Programming and DAO</t>
-  </si>
-  <si>
-    <t>What is Autowiring, Different types of autowiring, Implementing autowiring in different ways, Spring bean definition inheritance, Specifying default values using @value annotation, Autowiring, bean using @Autowired, Resolving bean using @Qualifier, Defining a component using @Component, Using @PostConstruct and @PreDestroy, Automatic Bean discovery in a Spring application,What is Aspect Oriented Programming (AOP),AOP terminologies, Implementing MethodBeforeAdvice, Implementing AfterReturningAdvice, Implementing MethodInterceptor Implementing ThrowsAdvice, What is AspectJ, AspectJ provided annotations like @Aspect,@Before etc</t>
   </si>
   <si>
     <t>Spring Web</t>
@@ -127,9 +118,6 @@
   </si>
   <si>
     <t>Spring Security</t>
-  </si>
-  <si>
-    <t>Logging with Log4j, Transaction Management</t>
   </si>
   <si>
     <t>Spring Boot</t>
@@ -312,6 +300,45 @@
   <si>
     <t>Source Control, Git, Key Git Terminology, Basic Git Commands, Branching and Merging,Maven (Local, Remote and Central Repo), Setup Maven ,Manage Repositories and Dependency, Management Building and deploying project, create package (jar or war), Integrate Maven with Eclipse, Manage testing and deployment options, Maven Goals, Maven Plugins</t>
   </si>
+  <si>
+    <t>Introduction to Java, Data Handling and Functions+B2:F13</t>
+  </si>
+  <si>
+    <t>Introduction to Spring Framework, Why Spring, Java Frameworks, Spring Framework, architecture, Object Coupling Problem, Loose coupling and Tight coupling, Dependency Injection and its types, Bean Life cycle, Bean scopes (singleton and prototype)</t>
+  </si>
+  <si>
+    <t>Create a spring application with java config with annotation driven bean defintion perform injection and show the demo</t>
+  </si>
+  <si>
+    <t>Create movie app with spring mvc and perform crud operation</t>
+  </si>
+  <si>
+    <t>What is Autowiring, Different types of autowiring, Implementing autowiring in different ways, Spring bean definition inheritance, Specifying default values using @value annotation, Autowiring, bean using @Autowired, Resolving bean using @Qualifier, Defining a component using @Component, Using @PostConstruct and @PreDestroy, Automatic Bean discovery in a Spring application,What is Aspect Oriented Programming (AOP),AOP terminologies, Implementing MethodBeforeAdvice, Implementing AfterReturningAdvice, Implementing MethodInterceptor Implementing ThrowsAdvice, What is AspectJ, AspectJ provided annotations like @Aspect,@Before etc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Logging with Log4j,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Transaction Management</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed, No assignment today</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -366,6 +393,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -454,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -534,9 +568,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,6 +585,18 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +621,12 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,10 +653,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,16 +878,16 @@
   </sheetPr>
   <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5703125" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="15" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="36.5703125" style="2"/>
   </cols>
@@ -854,13 +903,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -883,18 +932,18 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
+      <c r="B2" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
@@ -918,16 +967,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="1"/>
@@ -951,16 +1000,16 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="1"/>
@@ -984,9 +1033,9 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -995,7 +1044,7 @@
         <v>45348</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="1"/>
@@ -1019,9 +1068,9 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -1030,10 +1079,10 @@
         <v>45349</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1056,9 +1105,9 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -1067,10 +1116,10 @@
         <v>45350</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1093,9 +1142,9 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1104,7 +1153,7 @@
         <v>45351</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="1"/>
@@ -1128,9 +1177,9 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -1139,7 +1188,7 @@
         <v>45352</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
@@ -1163,21 +1212,21 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="31">
+        <v>9</v>
+      </c>
+      <c r="D10" s="32">
+        <v>45355</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32">
-        <v>9</v>
-      </c>
-      <c r="D10" s="33">
-        <v>45355</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1200,11 +1249,11 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>11</v>
@@ -1213,10 +1262,10 @@
         <v>45356</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1239,23 +1288,23 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="A12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="27">
         <v>10</v>
       </c>
       <c r="D12" s="21">
         <v>45357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1279,10 +1328,10 @@
     </row>
     <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
@@ -1291,10 +1340,10 @@
         <v>45358</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1318,10 +1367,10 @@
     </row>
     <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
@@ -1329,8 +1378,8 @@
       <c r="D14" s="21">
         <v>45359</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
+      <c r="E14" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="1"/>
@@ -1354,11 +1403,11 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>21</v>
+      <c r="A15" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="19">
         <v>14</v>
@@ -1366,10 +1415,12 @@
       <c r="D15" s="21">
         <v>45360</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="27"/>
+      <c r="E15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1390,10 +1441,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
@@ -1401,10 +1452,12 @@
       <c r="D16" s="21">
         <v>45362</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1426,20 +1479,20 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="A17" s="51"/>
+      <c r="B17" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="47">
         <v>16</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="37">
         <v>45363</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="38"/>
+      <c r="E17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="41"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1461,12 +1514,12 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1488,22 +1541,24 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="42">
+      <c r="A19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="47">
         <v>17</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="43">
         <v>45364</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="38"/>
+      <c r="E19" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1525,12 +1580,12 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1552,9 +1607,9 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5">
         <v>18</v>
@@ -1562,8 +1617,8 @@
       <c r="D21" s="21">
         <v>45365</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
+      <c r="E21" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
@@ -1587,9 +1642,9 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5">
         <v>19</v>
@@ -1597,8 +1652,8 @@
       <c r="D22" s="21">
         <v>45366</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>35</v>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
@@ -1622,9 +1677,9 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5">
         <v>20</v>
@@ -1633,7 +1688,7 @@
         <v>45367</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
@@ -1657,18 +1712,18 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="42">
+      <c r="A24" s="53"/>
+      <c r="B24" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="47">
         <v>21</v>
       </c>
       <c r="D24" s="21">
         <v>45369</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="1"/>
@@ -1692,9 +1747,9 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="21">
         <v>45370</v>
       </c>
@@ -1721,20 +1776,20 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>40</v>
+      <c r="A26" s="49" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5">
         <v>22</v>
       </c>
       <c r="D26" s="21">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
@@ -1758,18 +1813,18 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <v>23</v>
       </c>
       <c r="D27" s="21">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
@@ -1794,19 +1849,19 @@
     </row>
     <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8">
         <v>24</v>
       </c>
       <c r="D28" s="21">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1"/>
